--- a/supplementary_tables/Table_S4.xlsx
+++ b/supplementary_tables/Table_S4.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Legend" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Table S4" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Thiamine metabolism genes in diatoms are not regulated by </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thiamine despite </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">the presence o</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">f predicted riboswitches</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Marcel Llavero-Pasquina, Katrin Geisler, Andre Holzer, Payam Mehrshahi, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Gonzalo I Mendoza-Ochoa, Shelby Newsad, Matthew P Davey, Alison G Smith</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepted: 20 May 2022</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Table S4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Primers used in this study. Underlined sequences correspond to BpiI or BsaI restriction sites, and bold sequences represent the overhang left by the type 2S restriction.</t>
+    </r>
+  </si>
   <si>
     <r>
       <rPr>
@@ -32,7 +117,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Supplementary table 1. Primers used in this study. </t>
+      <t xml:space="preserve">Table S4. Primers used in this study. </t>
     </r>
     <r>
       <rPr>
@@ -4056,7 +4141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4081,6 +4166,63 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <i val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -4090,13 +4232,6 @@
     </font>
     <font>
       <i val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -4143,12 +4278,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -4234,64 +4375,96 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4312,885 +4485,1034 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B2:C112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="84.29"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4"/>
+      <c r="B4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
+      <c r="B6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
+      <c r="B7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
+      <c r="B8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
+      <c r="B9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>15</v>
+      <c r="B10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>17</v>
+      <c r="B11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>19</v>
+      <c r="B12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>21</v>
+      <c r="B13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>23</v>
+      <c r="B14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>25</v>
+      <c r="B15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>27</v>
+      <c r="B16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>29</v>
+      <c r="B17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>31</v>
+      <c r="B18" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>33</v>
+      <c r="B19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>35</v>
+      <c r="B20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>37</v>
+      <c r="B21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>39</v>
+      <c r="B22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>41</v>
+      <c r="B23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>43</v>
+      <c r="B24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>45</v>
+      <c r="B25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>47</v>
+      <c r="B26" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>49</v>
+      <c r="B27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>51</v>
+      <c r="B28" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>53</v>
+      <c r="B29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>55</v>
+      <c r="B30" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="4"/>
+      <c r="B31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>58</v>
+      <c r="B32" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>60</v>
+      <c r="B33" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>62</v>
+      <c r="B34" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>64</v>
+      <c r="B35" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="4"/>
+      <c r="B36" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>67</v>
+      <c r="B37" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>69</v>
+      <c r="B38" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>71</v>
+      <c r="B39" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>73</v>
+      <c r="B40" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>75</v>
+      <c r="B41" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>77</v>
+      <c r="B42" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>79</v>
+      <c r="B43" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>81</v>
+      <c r="B44" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>83</v>
+      <c r="B45" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>85</v>
+      <c r="B46" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>87</v>
+      <c r="B47" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>89</v>
+      <c r="B48" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>91</v>
+      <c r="B49" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>93</v>
+      <c r="B50" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>95</v>
+      <c r="B51" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>97</v>
+      <c r="B52" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>99</v>
+      <c r="B53" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>101</v>
+      <c r="B54" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>103</v>
+      <c r="B55" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>105</v>
+      <c r="B56" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>107</v>
+      <c r="B57" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>109</v>
+      <c r="B58" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>111</v>
+      <c r="B59" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>113</v>
+      <c r="B60" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>115</v>
+      <c r="B61" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>117</v>
+      <c r="B62" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>119</v>
+      <c r="B63" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>121</v>
+      <c r="B64" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>123</v>
+      <c r="B65" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>125</v>
+      <c r="B66" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>127</v>
+      <c r="B67" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>129</v>
+      <c r="B68" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>131</v>
+      <c r="B69" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>133</v>
+      <c r="B70" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>135</v>
+      <c r="B71" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>137</v>
+      <c r="B72" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>139</v>
+      <c r="B73" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>141</v>
+      <c r="B74" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>143</v>
+      <c r="B75" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>145</v>
+      <c r="B76" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>147</v>
+      <c r="B77" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>149</v>
+      <c r="B78" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>151</v>
+      <c r="B79" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>153</v>
+      <c r="B80" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>155</v>
+      <c r="B81" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>157</v>
+      <c r="B82" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>159</v>
+      <c r="B83" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>161</v>
+      <c r="B84" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>163</v>
+      <c r="B85" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>165</v>
+      <c r="B86" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>167</v>
+      <c r="B87" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>169</v>
+      <c r="B88" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>171</v>
+      <c r="B89" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>173</v>
+      <c r="B90" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>175</v>
+      <c r="B91" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>177</v>
+      <c r="B92" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>179</v>
+      <c r="B93" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>181</v>
+      <c r="B94" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>183</v>
+      <c r="B95" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>185</v>
+      <c r="B96" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>187</v>
+      <c r="B97" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B98" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C98" s="4"/>
+      <c r="B98" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="12"/>
     </row>
     <row r="99" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>190</v>
+      <c r="B99" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>192</v>
+      <c r="B100" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>194</v>
+      <c r="B101" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>196</v>
+      <c r="B102" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>198</v>
+      <c r="B103" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>200</v>
+      <c r="B104" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>202</v>
+      <c r="B105" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>204</v>
+      <c r="B106" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>206</v>
+      <c r="B107" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>208</v>
+      <c r="B108" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>210</v>
+      <c r="B109" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>212</v>
+      <c r="B110" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>214</v>
+      <c r="B111" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
